--- a/botWhats/botWhats/botWhats/contatos.xlsx
+++ b/botWhats/botWhats/botWhats/contatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\PycharmProjects\botWhats\botWhats\botWhats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Documents\GitHub\botWhatsApp\botWhats\botWhats\botWhats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,10 +35,10 @@
     <t>Arquivo</t>
   </si>
   <si>
-    <t>Olá, vamos falar de consórcio?</t>
+    <t>C:\Users\Ed\PycharmProjects\botWhats\botWhats\botWhats\teste.txt</t>
   </si>
   <si>
-    <t>C:\Users\Ed\PycharmProjects\botWhats\botWhats\botWhats\teste.txt</t>
+    <t>Olá, aqui vai a sua mensagem</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,29 +391,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>16997043388</v>
+        <v>11999999999</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>11965856868</v>
+        <v>11999999999</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>11954453735</v>
+        <v>11999999999</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
